--- a/list server.xlsx
+++ b/list server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>server</t>
   </si>
@@ -59,9 +59,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>192.168.163.139</t>
-  </si>
-  <si>
     <t>git-server</t>
   </si>
   <si>
@@ -72,6 +69,21 @@
   </si>
   <si>
     <t>vucp2912n720.online</t>
+  </si>
+  <si>
+    <t>192.168.163.130</t>
+  </si>
+  <si>
+    <t>192.168.163.131</t>
+  </si>
+  <si>
+    <t>database-server</t>
+  </si>
+  <si>
+    <t>dev-server</t>
+  </si>
+  <si>
+    <t>192.168.163.132</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -490,10 +502,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -513,14 +525,60 @@
       <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/list server.xlsx
+++ b/list server.xlsx
@@ -65,12 +65,6 @@
     <t>103.20.97.171</t>
   </si>
   <si>
-    <t>vps</t>
-  </si>
-  <si>
-    <t>vucp2912n720.online</t>
-  </si>
-  <si>
     <t>192.168.163.130</t>
   </si>
   <si>
@@ -84,6 +78,12 @@
   </si>
   <si>
     <t>192.168.163.132</t>
+  </si>
+  <si>
+    <t>jrog-server</t>
+  </si>
+  <si>
+    <t>jfrog.example.com</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -526,10 +526,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/list server.xlsx
+++ b/list server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>server</t>
   </si>
@@ -62,28 +62,31 @@
     <t>git-server</t>
   </si>
   <si>
-    <t>103.20.97.171</t>
-  </si>
-  <si>
     <t>192.168.163.130</t>
   </si>
   <si>
     <t>192.168.163.131</t>
   </si>
   <si>
-    <t>database-server</t>
-  </si>
-  <si>
     <t>dev-server</t>
   </si>
   <si>
     <t>192.168.163.132</t>
   </si>
   <si>
-    <t>jrog-server</t>
-  </si>
-  <si>
-    <t>jfrog.example.com</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>sử dụng bản global</t>
+  </si>
+  <si>
+    <t>database-server and build</t>
+  </si>
+  <si>
+    <t>192.168.163.133</t>
+  </si>
+  <si>
+    <t>artifactory-server</t>
   </si>
 </sst>
 </file>
@@ -111,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +149,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,22 +433,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -460,8 +474,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -485,31 +502,34 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -526,13 +546,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -549,13 +569,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -571,14 +591,11 @@
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
